--- a/dashboard_loader/health_life_expectancy_uploader/health_life_expectancy.xlsx
+++ b/dashboard_loader/health_life_expectancy_uploader/health_life_expectancy.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t xml:space="preserve">All Australians average life expectancy at birth (years), by state and territory</t>
   </si>
@@ -86,6 +86,9 @@
     <t xml:space="preserve">2013-15</t>
   </si>
   <si>
+    <t xml:space="preserve">2014-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
@@ -107,7 +110,7 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Life expectancy at birth has improved over the reporting period 2007-09 to 2013-15. Male life expectancy was 80.4 years in 2013-15 (up from 79.3 in 2007–09). Female life expectancy consistently improved from 83.9 to 84.5 years over the same duration.</t>
+    <t xml:space="preserve">Life expectancy at birth has improved over the reporting period 2007-09 to 2014-16. Male life expectancy was 80.4 years in 2014-16 (up from 79.3 in 2007–09). Female life expectancy consistently improved from 83.9 to 84.6 years over the same period.</t>
   </si>
   <si>
     <t xml:space="preserve">All states and territories have shown a small increase over the same period, with the exception of females in the Northern Territory. Indigenous life expectancy continues to show a substantial gap compared to non-Indigenous Australians (see the page on the National Indigenous Reform Agreement for more information). </t>
@@ -128,7 +131,7 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS 2016 and previous years, Life Tables, Australia, States and Territories, various years.</t>
+    <t xml:space="preserve">ABS 2017 and previous years, Life Tables, Australia, States and Territories, 2014-2016, various years (Cat. no. 3302.0.55.001). </t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,88 +167,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -265,78 +186,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -347,7 +224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,73 +248,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,132 +274,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -579,18 +336,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +364,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +401,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -681,7 +438,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -718,7 +475,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -755,7 +512,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -792,7 +549,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -829,7 +586,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -866,7 +623,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -903,7 +660,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -940,7 +697,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -977,7 +734,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +771,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +808,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +845,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1123,7 +880,7 @@
         <v>80.4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
@@ -1156,6 +913,76 @@
       </c>
       <c r="K16" s="11" t="n">
         <v>84.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>80.1</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>84.6</v>
       </c>
     </row>
   </sheetData>
@@ -1180,84 +1007,84 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="14" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B8" s="14" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
